--- a/newTest9.xlsx
+++ b/newTest9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhk99\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BAB537-101A-4841-9B76-A28A7DDD7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2262D165-31A4-4CD0-81C4-2BF8A316E02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5870" yWindow="20" windowWidth="10630" windowHeight="9850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1806,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D111" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D110" workbookViewId="0">
       <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>

--- a/newTest9.xlsx
+++ b/newTest9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhk99\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2262D165-31A4-4CD0-81C4-2BF8A316E02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BAB537-101A-4841-9B76-A28A7DDD7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5870" yWindow="20" windowWidth="10630" windowHeight="9850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1806,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D111" workbookViewId="0">
       <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>

--- a/newTest9.xlsx
+++ b/newTest9.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="442">
   <si>
     <t>Section1, Module1: Reading and Writing</t>
   </si>
@@ -663,16 +663,16 @@
     <t>The author would accept that military engagements were a factor in historical events in the Caribbean but would encourage McNeill to also consider environmental factors, such as climate, as well.</t>
   </si>
   <si>
-    <t>\ldblquote Hope is the Thing with Feathers\rdblquote  is a late 1800s poem written by Emily Dickinson.\b \b0 \par 
-\ldblquote Hope\rdblquote  is the thing with feathers\emdash \par 
+    <t>\ldblquote Hope is the Thing with Feathers\rdblquote  is a late 1800s poem written by Emily Dickinson.
+\b \b0 \par \ldblquote Hope\rdblquote  is the thing with feathers\emdash \par 
 That perches in the soul\emdash \par 
 And sings the tune without the words\emdash \par 
-And never stops\emdash at all\emdash \par 
-And sweetest\emdash in the Gale\emdash \par 
+And never stops\emdash at all\emdash 
+\par And sweetest\emdash in the Gale\emdash \par 
 is heard And sore must be the storm\emdash \par 
 That could abash the little Bird\par 
-That kept so many warm\emdash  \par 
-I\rquote ve heard it in the chillest land\emdash \par 
+That kept so many warm\emdash  
+\par I\rquote ve heard it in the chillest land\emdash \par 
 And on the strangest Sea\emdash \par 
 Yet, never, in Extremity, \par 
 It asked a crumb\emdash of Me.</t>
@@ -1299,13 +1299,13 @@
     <t>[[\frac{-2\pm\sqrt{10}}{2}]]</t>
   </si>
   <si>
-    <t>-2\pm\sqrt{5}</t>
-  </si>
-  <si>
-    <t>-1\pm\sqrt{10}</t>
-  </si>
-  <si>
-    <t>-1\pm2\sqrt{10}</t>
+    <t>[[-2\pm\sqrt{5}]]</t>
+  </si>
+  <si>
+    <t>[[-1\pm\sqrt{10}]]</t>
+  </si>
+  <si>
+    <t>[[-1\pm2\sqrt{10}]]</t>
   </si>
   <si>
     <t>The number of algae cells in a test tube increases at a rate of 50 percent per day. After 3 days, the number of algae cells is 6,750. What was the initial number of algae cells in the test tube?</t>
@@ -1347,11 +1347,10 @@
     <t>[[(xyz + c)m]]</t>
   </si>
   <si>
-    <t xml:space="preserve">[[\begin{cases}
+    <t>[[\begin{cases}
  &amp; 2x + 8y = 9  \\
  &amp; 3x + 5y = 10 
-\end{cases}]]
-</t>
+\end{cases}]]</t>
   </si>
   <si>
     <t>If (x, y) is a solution to the system of equations
@@ -1367,13 +1366,13 @@
     <t>No solution</t>
   </si>
   <si>
-    <t>{-2}</t>
-  </si>
-  <si>
-    <t>{2}</t>
-  </si>
-  <si>
-    <t>{-2, 2}</t>
+    <t>[[{-2}]]</t>
+  </si>
+  <si>
+    <t>[[{2}]]</t>
+  </si>
+  <si>
+    <t>[[{-2, 2}]]</t>
   </si>
   <si>
     <t>Which of the following equations could be for the graph of the polynomial shown?</t>
@@ -1394,8 +1393,7 @@
     <t>[[y = ax^2 - \frac{b^2}{4}]]</t>
   </si>
   <si>
-    <t>Which of the following is equivalent to the equa­ 
-tion shown?</t>
+    <t>Which of the following is equivalent to the equation shown?</t>
   </si>
   <si>
     <t xml:space="preserve">[[y=(\sqrt{ax} + \frac{b}{2})(\sqrt{ax} - \frac{b}{2})]]
@@ -1422,7 +1420,7 @@
     <t>A machine shop has a box of metal disks as shown in the table. There are 3 small zinc disks for every 5 large zinc disks and 4 small copper disks for every 7 large copper disks. If a small disk is chosen at random, what is the probability that it will be copper?</t>
   </si>
   <si>
-    <t>2/5; 0.4</t>
+    <t>2/5; 0.4; 4/10</t>
   </si>
   <si>
     <t>[[x^2 + y^2 + 12x + 14y = -4</t>
@@ -1445,9 +1443,6 @@
   </si>
   <si>
     <t>[[25:16]]</t>
-  </si>
-  <si>
-    <t>In triangle \i ABC\i0 , angel \i A\i0  and angel \i C\i0  are equal, and \i AC\i0  is 48 inches long. If tan [[\angle]] A is 0.75, what is the area of the triangle, in square inches?</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1509,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1583,6 +1578,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -6017,7 +6018,7 @@
       <c r="X104" s="1"/>
     </row>
     <row r="105" ht="47.25" customHeight="1">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="23" t="s">
         <v>309</v>
       </c>
       <c r="B105" s="1"/>
@@ -6027,13 +6028,13 @@
       <c r="D105" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="F105" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" s="9" t="s">
         <v>398</v>
       </c>
       <c r="H105" s="13" t="s">
@@ -6291,7 +6292,7 @@
       <c r="X111" s="1"/>
     </row>
     <row r="112" ht="63.75" customHeight="1">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="23" t="s">
         <v>309</v>
       </c>
       <c r="B112" s="9" t="s">
@@ -6303,13 +6304,13 @@
       <c r="D112" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="F112" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="G112" s="9" t="s">
         <v>419</v>
       </c>
       <c r="H112" s="13" t="s">
@@ -6340,16 +6341,16 @@
       <c r="C113" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D113" s="23" t="s">
+      <c r="D113" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="E113" s="23" t="s">
+      <c r="E113" s="25" t="s">
         <v>422</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="F113" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="G113" s="23" t="s">
+      <c r="G113" s="25" t="s">
         <v>424</v>
       </c>
       <c r="H113" s="13" t="s">
@@ -6379,7 +6380,7 @@
       <c r="B114" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C114" s="9" t="s">
         <v>426</v>
       </c>
       <c r="D114" s="9" t="s">
@@ -6468,7 +6469,7 @@
       <c r="E116" s="10"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
-      <c r="H116" s="13" t="s">
+      <c r="H116" s="21" t="s">
         <v>434</v>
       </c>
       <c r="I116" s="1"/>
@@ -6575,9 +6576,7 @@
         <v>73</v>
       </c>
       <c r="B119" s="1"/>
-      <c r="C119" s="9" t="s">
-        <v>442</v>
-      </c>
+      <c r="C119" s="9"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
